--- a/ExcelFiles/receivePay_data.xlsx
+++ b/ExcelFiles/receivePay_data.xlsx
@@ -4,14 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="valid_data" sheetId="1" r:id="rId1"/>
-    <sheet name="blank" sheetId="2" r:id="rId2"/>
-    <sheet name="blank_amt_data" sheetId="3" r:id="rId3"/>
-    <sheet name="blank_desc_data" sheetId="4" r:id="rId4"/>
-    <sheet name="blank_user_data" sheetId="5" r:id="rId5"/>
+    <sheet name="invalid_data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,15 +28,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
-    <t>${user}</t>
+    <t>to_user</t>
   </si>
   <si>
-    <t>${amount}</t>
+    <t>amount</t>
   </si>
   <si>
-    <t>${description}</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
   <si>
     <t>demo</t>
@@ -48,25 +51,10 @@
     <t>Receive payment from users</t>
   </si>
   <si>
-    <t>${blank_user}</t>
+    <t>dharun</t>
   </si>
   <si>
-    <t>${blank_amount}</t>
-  </si>
-  <si>
-    <t>${blank_description}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">${amount} </t>
+    <t>@</t>
   </si>
 </sst>
 </file>
@@ -689,17 +677,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1023,41 +1011,53 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
     <col min="2" max="3" width="28.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="14.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="20.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4"/>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1234</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1068,161 +1068,54 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="28.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="15.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="23.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="16.1428571428571" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="2" max="2" width="18.5714285714286" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100</v>
+      <c r="E2" s="4">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFiles/receivePay_data.xlsx
+++ b/ExcelFiles/receivePay_data.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="valid_data" sheetId="1" r:id="rId1"/>
-    <sheet name="invalid_data" sheetId="2" r:id="rId2"/>
+    <sheet name="blank" sheetId="2" r:id="rId2"/>
+    <sheet name="blank_amt_data" sheetId="3" r:id="rId3"/>
+    <sheet name="blank_desc_data" sheetId="4" r:id="rId4"/>
+    <sheet name="blank_user_data" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,21 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
-    <t>to_user</t>
+    <t>${user}</t>
   </si>
   <si>
-    <t>amount</t>
+    <t>${amount}</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
+    <t>${description}</t>
   </si>
   <si>
     <t>demo</t>
@@ -51,10 +48,25 @@
     <t>Receive payment from users</t>
   </si>
   <si>
-    <t>dharun</t>
+    <t>${blank_user}</t>
   </si>
   <si>
-    <t>@</t>
+    <t>${blank_amount}</t>
+  </si>
+  <si>
+    <t>${blank_description}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">${amount} </t>
   </si>
 </sst>
 </file>
@@ -677,17 +689,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1011,53 +1023,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
     <col min="2" max="3" width="28.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="14.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="20.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="5">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1234</v>
-      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1068,54 +1068,161 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="28.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="15.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="23.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="16.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="18.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
         <v>100</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1234</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFiles/receivePay_data.xlsx
+++ b/ExcelFiles/receivePay_data.xlsx
@@ -4,14 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="valid_data" sheetId="1" r:id="rId1"/>
-    <sheet name="blank" sheetId="2" r:id="rId2"/>
-    <sheet name="blank_amt_data" sheetId="3" r:id="rId3"/>
-    <sheet name="blank_desc_data" sheetId="4" r:id="rId4"/>
-    <sheet name="blank_user_data" sheetId="5" r:id="rId5"/>
+    <sheet name="invalid_data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,15 +28,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
-    <t>${user}</t>
+    <t>to_user</t>
   </si>
   <si>
-    <t>${amount}</t>
+    <t>amount</t>
   </si>
   <si>
-    <t>${description}</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
   <si>
     <t>demo</t>
@@ -48,25 +51,10 @@
     <t>Receive payment from users</t>
   </si>
   <si>
-    <t>${blank_user}</t>
+    <t>dharun</t>
   </si>
   <si>
-    <t>${blank_amount}</t>
-  </si>
-  <si>
-    <t>${blank_description}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">${amount} </t>
+    <t>@</t>
   </si>
 </sst>
 </file>
@@ -687,19 +675,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1023,41 +1014,53 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
     <col min="2" max="3" width="28.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="14.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="20.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4"/>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1234</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1068,161 +1071,54 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="28.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="15.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="23.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="16.1428571428571" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="2" max="2" width="18.5714285714286" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100</v>
+      <c r="E2" s="5">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
